--- a/target/classes/testData.xlsx
+++ b/target/classes/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\RLLFinal6\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2129C03D-AABE-41E3-9D8F-84FFA0346AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D22BEC-4824-4D6A-8D4A-021A06AE6CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="4" r:id="rId1"/>
@@ -120,13 +120,13 @@
     <t>bike</t>
   </si>
   <si>
-    <t>Ads@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin025@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin7654321@gmail.com</t>
+    <t>Adminaabbcd@gmail.com</t>
+  </si>
+  <si>
+    <t>Adsaabbc@gmail.com</t>
+  </si>
+  <si>
+    <t>Admin02aac5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -508,8 +508,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -542,7 +542,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>5264362</v>
@@ -784,7 +784,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCCF531-467F-4D0A-BC00-00BEE4ACC8F5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -824,7 +824,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
